--- a/fuentes/contenidos/grado06/guion07/ESCALETA_LE_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/ESCALETA_LE_06_07_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\CRISTIAN\PLANETA\NUEVO\ESCALETAS\Escaletas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado06\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>El artículo de opinión</t>
-  </si>
-  <si>
-    <t>LE_06_07_C0</t>
   </si>
   <si>
     <t>Lectura: el artículo de opinión</t>
@@ -995,6 +992,9 @@
   </si>
   <si>
     <t>DBA10. Revisar que las opciones sean adecuadas y comprensibles</t>
+  </si>
+  <si>
+    <t>LE_06_07_CO</t>
   </si>
 </sst>
 </file>
@@ -1568,37 +1568,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="L1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="82.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="78.85546875" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="53.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="16.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="82.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.265625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="78.86328125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="16.59765625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="20.3984375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="23" style="3" customWidth="1"/>
+    <col min="19" max="19" width="39.1328125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="53.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.73046875" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="34"/>
       <c r="B2" s="32"/>
       <c r="C2" s="43"/>
@@ -1688,23 +1688,23 @@
       <c r="T2" s="26"/>
       <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="14.7" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="9"/>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>20</v>
@@ -1726,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -1741,29 +1741,29 @@
         <v>128</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="9"/>
       <c r="G4" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1800,29 +1800,29 @@
         <v>128</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="9"/>
       <c r="G5" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1831,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1844,7 +1844,7 @@
         <v>43</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1859,29 +1859,29 @@
         <v>128</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="9"/>
       <c r="G6" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -1903,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1918,29 +1918,29 @@
         <v>128</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="9"/>
       <c r="G7" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -1962,7 +1962,7 @@
         <v>27</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1977,29 +1977,29 @@
         <v>128</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="9"/>
       <c r="G8" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2008,7 +2008,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
@@ -2021,7 +2021,7 @@
         <v>121</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -2036,29 +2036,29 @@
         <v>128</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U8" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="9"/>
       <c r="G9" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2067,7 +2067,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
@@ -2078,7 +2078,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -2087,35 +2087,35 @@
         <v>8</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="U9" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="9"/>
       <c r="G10" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2124,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
@@ -2135,7 +2135,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>20</v>
@@ -2144,37 +2144,37 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="U10" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2183,7 +2183,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
@@ -2194,48 +2194,48 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="U11" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="G12" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2244,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -2257,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2272,33 +2272,33 @@
         <v>128</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2307,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2320,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2335,33 +2335,33 @@
         <v>128</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2370,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -2383,7 +2383,7 @@
         <v>121</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
@@ -2398,31 +2398,31 @@
         <v>128</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2431,7 +2431,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -2444,7 +2444,7 @@
         <v>44</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2459,31 +2459,31 @@
         <v>128</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -2505,7 +2505,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2520,29 +2520,29 @@
         <v>128</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2551,7 +2551,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>19</v>
@@ -2562,7 +2562,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2571,37 +2571,37 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2610,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2623,7 +2623,7 @@
         <v>29</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2638,31 +2638,31 @@
         <v>128</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2671,7 +2671,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
@@ -2684,7 +2684,7 @@
         <v>27</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2699,31 +2699,31 @@
         <v>128</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -2745,7 +2745,7 @@
         <v>49</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2760,31 +2760,31 @@
         <v>128</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2793,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
@@ -2804,7 +2804,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2813,37 +2813,37 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2852,7 +2852,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2865,7 +2865,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2880,29 +2880,29 @@
         <v>128</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="9"/>
       <c r="G23" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2911,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2933,37 +2933,37 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="T23" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="U23" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>19</v>
@@ -2983,7 +2983,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>20</v>
@@ -2992,37 +2992,37 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="T24" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="U24" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3031,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>19</v>
@@ -3042,46 +3042,46 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S25" s="10" t="s">
+      <c r="T25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="U25" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3103,7 +3103,7 @@
         <v>43</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3118,31 +3118,31 @@
         <v>128</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3151,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3164,7 +3164,7 @@
         <v>121</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -3179,31 +3179,31 @@
         <v>128</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3212,7 +3212,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
@@ -3234,37 +3234,37 @@
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="S28" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="S28" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="T28" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3273,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -3286,7 +3286,7 @@
         <v>45</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>20</v>
@@ -3301,31 +3301,31 @@
         <v>128</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3334,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -3347,7 +3347,7 @@
         <v>36</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>19</v>
@@ -3362,31 +3362,31 @@
         <v>128</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>20</v>
@@ -3408,7 +3408,7 @@
         <v>121</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3417,37 +3417,37 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S31" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="T31" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="U31" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3456,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>20</v>
@@ -3469,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>19</v>
@@ -3484,31 +3484,31 @@
         <v>128</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H33" s="9">
         <v>31</v>
@@ -3517,7 +3517,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>20</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>19</v>
@@ -3539,37 +3539,37 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="T33" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H34" s="9">
         <v>32</v>
@@ -3578,7 +3578,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>20</v>
@@ -3591,7 +3591,7 @@
         <v>121</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>19</v>
@@ -3600,24 +3600,24 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>133</v>
@@ -3628,7 +3628,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="9"/>
       <c r="G35" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" s="9">
         <v>33</v>
@@ -3637,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>20</v>
@@ -3650,7 +3650,7 @@
         <v>119</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>19</v>
@@ -3665,18 +3665,18 @@
         <v>128</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>133</v>
@@ -3687,7 +3687,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="9"/>
       <c r="G36" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H36" s="9">
         <v>34</v>
@@ -3696,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>20</v>
@@ -3709,7 +3709,7 @@
         <v>37</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P36" s="9" t="s">
         <v>19</v>
@@ -3724,18 +3724,18 @@
         <v>128</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U36" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>133</v>
@@ -3746,7 +3746,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H37" s="9">
         <v>35</v>
@@ -3755,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>20</v>
@@ -3768,7 +3768,7 @@
         <v>51</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P37" s="9" t="s">
         <v>19</v>
@@ -3783,18 +3783,18 @@
         <v>128</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>133</v>
@@ -3805,7 +3805,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="9"/>
       <c r="G38" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H38" s="9">
         <v>36</v>
@@ -3814,7 +3814,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
@@ -3827,7 +3827,7 @@
         <v>49</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P38" s="9" t="s">
         <v>19</v>
@@ -3842,18 +3842,18 @@
         <v>128</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U38" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>133</v>
@@ -3867,13 +3867,13 @@
         <v>10</v>
       </c>
       <c r="H39" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>20</v>
@@ -3893,12 +3893,12 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>133</v>
@@ -3912,13 +3912,13 @@
         <v>125</v>
       </c>
       <c r="H40" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>20</v>
@@ -3952,12 +3952,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>133</v>
@@ -3971,13 +3971,13 @@
         <v>126</v>
       </c>
       <c r="H41" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>20</v>
@@ -3990,7 +3990,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>20</v>
@@ -4011,7 +4011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
@@ -4034,7 +4034,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
@@ -4057,7 +4057,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
@@ -4080,7 +4080,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
@@ -4103,7 +4103,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
@@ -4126,7 +4126,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
@@ -4149,7 +4149,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
@@ -4172,7 +4172,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
@@ -4195,7 +4195,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
@@ -4218,7 +4218,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
@@ -4241,7 +4241,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
@@ -4264,7 +4264,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
@@ -4287,7 +4287,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
@@ -4310,7 +4310,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
@@ -4333,7 +4333,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
@@ -4356,7 +4356,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
@@ -4379,7 +4379,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
@@ -4402,7 +4402,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
@@ -4425,7 +4425,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
@@ -4448,7 +4448,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
@@ -4471,7 +4471,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
@@ -4494,7 +4494,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
@@ -4517,7 +4517,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
@@ -4540,7 +4540,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
@@ -4563,7 +4563,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
@@ -4586,7 +4586,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
@@ -4609,7 +4609,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
@@ -4632,7 +4632,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
@@ -4655,7 +4655,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
@@ -4678,7 +4678,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
@@ -4701,7 +4701,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
@@ -4724,367 +4724,367 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
@@ -5166,27 +5166,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.3984375" style="1"/>
+    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5330,7 +5330,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5345,7 +5345,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5360,7 +5360,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5375,7 +5375,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5390,7 +5390,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5405,7 +5405,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5420,7 +5420,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5435,7 +5435,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5450,7 +5450,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5464,7 +5464,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5478,7 +5478,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5492,7 +5492,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5506,7 +5506,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5521,7 +5521,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5536,7 +5536,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5551,7 +5551,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5566,7 +5566,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5581,7 +5581,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5596,7 +5596,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5611,7 +5611,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5626,7 +5626,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5641,7 +5641,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5656,7 +5656,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5671,7 +5671,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5686,7 +5686,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5701,7 +5701,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5716,7 +5716,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5731,7 +5731,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5746,7 +5746,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5761,7 +5761,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5776,7 +5776,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5791,7 +5791,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5806,7 +5806,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5821,7 +5821,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5836,7 +5836,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5851,7 +5851,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5866,7 +5866,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5881,7 +5881,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5896,7 +5896,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5911,7 +5911,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5926,7 +5926,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5938,7 +5938,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5950,7 +5950,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5976,7 +5976,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5989,7 +5989,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -6002,7 +6002,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -6015,7 +6015,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -6028,7 +6028,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6041,7 +6041,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6054,7 +6054,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6067,7 +6067,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6080,7 +6080,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6093,7 +6093,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -6106,7 +6106,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6119,7 +6119,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6132,7 +6132,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6145,7 +6145,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6158,7 +6158,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6171,7 +6171,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6184,7 +6184,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6197,7 +6197,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6210,7 +6210,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6224,7 +6224,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6238,7 +6238,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6252,7 +6252,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6266,7 +6266,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6280,7 +6280,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6294,7 +6294,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6308,7 +6308,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6322,7 +6322,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6336,7 +6336,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6350,7 +6350,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6364,7 +6364,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6378,7 +6378,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6392,7 +6392,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6406,7 +6406,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6420,7 +6420,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6434,7 +6434,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6448,7 +6448,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6462,7 +6462,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6476,7 +6476,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6490,7 +6490,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6504,7 +6504,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6518,7 +6518,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6532,7 +6532,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6546,7 +6546,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6560,7 +6560,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6574,7 +6574,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6588,7 +6588,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6602,7 +6602,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6616,7 +6616,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6644,7 +6644,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6658,7 +6658,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6672,7 +6672,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6686,7 +6686,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6700,7 +6700,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6714,7 +6714,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6728,7 +6728,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6742,7 +6742,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6756,7 +6756,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6770,7 +6770,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6784,7 +6784,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6798,7 +6798,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6812,7 +6812,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6826,7 +6826,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6840,7 +6840,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6854,7 +6854,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6868,7 +6868,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6882,7 +6882,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6896,7 +6896,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6910,7 +6910,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6924,7 +6924,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6938,7 +6938,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6952,7 +6952,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6966,7 +6966,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6980,7 +6980,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6994,7 +6994,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7008,7 +7008,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7022,7 +7022,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7036,7 +7036,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7050,7 +7050,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7064,7 +7064,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7078,7 +7078,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
